--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema4g-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema4g-Plxnb2.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1541183333333333</v>
+        <v>0.02915933333333333</v>
       </c>
       <c r="H2">
-        <v>0.462355</v>
+        <v>0.087478</v>
       </c>
       <c r="I2">
-        <v>0.07333767099777491</v>
+        <v>0.009217161845809414</v>
       </c>
       <c r="J2">
-        <v>0.0862683729962668</v>
+        <v>0.01157500551439625</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.464632333333334</v>
+        <v>9.363528666666667</v>
       </c>
       <c r="N2">
-        <v>25.393897</v>
+        <v>28.090586</v>
       </c>
       <c r="O2">
-        <v>0.04610470135281236</v>
+        <v>0.04175743631338733</v>
       </c>
       <c r="P2">
-        <v>0.0483653868994476</v>
+        <v>0.04324026421082073</v>
       </c>
       <c r="Q2">
-        <v>1.304555027492778</v>
+        <v>0.2730342535675556</v>
       </c>
       <c r="R2">
-        <v>11.740995247435</v>
+        <v>2.457308282108</v>
       </c>
       <c r="S2">
-        <v>0.003381211419263221</v>
+        <v>0.0003848850487665702</v>
       </c>
       <c r="T2">
-        <v>0.004172403237150302</v>
+        <v>0.0005005062966842006</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1541183333333333</v>
+        <v>0.02915933333333333</v>
       </c>
       <c r="H3">
-        <v>0.462355</v>
+        <v>0.087478</v>
       </c>
       <c r="I3">
-        <v>0.07333767099777491</v>
+        <v>0.009217161845809414</v>
       </c>
       <c r="J3">
-        <v>0.0862683729962668</v>
+        <v>0.01157500551439625</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>117.67466</v>
       </c>
       <c r="O3">
-        <v>0.2136479901487249</v>
+        <v>0.1749266505387075</v>
       </c>
       <c r="P3">
-        <v>0.2241239483314023</v>
+        <v>0.1811383852696593</v>
       </c>
       <c r="Q3">
-        <v>6.045274158255556</v>
+        <v>1.143771545275556</v>
       </c>
       <c r="R3">
-        <v>54.40746742429999</v>
+        <v>10.29394390748</v>
       </c>
       <c r="S3">
-        <v>0.01566844601086304</v>
+        <v>0.001612327249160611</v>
       </c>
       <c r="T3">
-        <v>0.01933480837204944</v>
+        <v>0.002096677808365138</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1541183333333333</v>
+        <v>0.02915933333333333</v>
       </c>
       <c r="H4">
-        <v>0.462355</v>
+        <v>0.087478</v>
       </c>
       <c r="I4">
-        <v>0.07333767099777491</v>
+        <v>0.009217161845809414</v>
       </c>
       <c r="J4">
-        <v>0.0862683729962668</v>
+        <v>0.01157500551439625</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>55.27063666666667</v>
+        <v>71.284935</v>
       </c>
       <c r="N4">
-        <v>165.81191</v>
+        <v>213.854805</v>
       </c>
       <c r="O4">
-        <v>0.3010451129769252</v>
+        <v>0.3179011075133629</v>
       </c>
       <c r="P4">
-        <v>0.3158064782135008</v>
+        <v>0.3291899382573772</v>
       </c>
       <c r="Q4">
-        <v>8.518218405338889</v>
+        <v>2.07862118131</v>
       </c>
       <c r="R4">
-        <v>76.66396564805</v>
+        <v>18.70759063179</v>
       </c>
       <c r="S4">
-        <v>0.02207794745098971</v>
+        <v>0.002930145958912725</v>
       </c>
       <c r="T4">
-        <v>0.0272441110571597</v>
+        <v>0.003810375350612901</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1541183333333333</v>
+        <v>0.02915933333333333</v>
       </c>
       <c r="H5">
-        <v>0.462355</v>
+        <v>0.087478</v>
       </c>
       <c r="I5">
-        <v>0.07333767099777491</v>
+        <v>0.009217161845809414</v>
       </c>
       <c r="J5">
-        <v>0.0862683729962668</v>
+        <v>0.01157500551439625</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.7448065</v>
+        <v>23.0690325</v>
       </c>
       <c r="N5">
-        <v>51.48961300000001</v>
+        <v>46.138065</v>
       </c>
       <c r="O5">
-        <v>0.1402254189345309</v>
+        <v>0.1028782726814826</v>
       </c>
       <c r="P5">
-        <v>0.09806746298324463</v>
+        <v>0.07102102180339065</v>
       </c>
       <c r="Q5">
-        <v>3.967746669769167</v>
+        <v>0.6726776083449999</v>
       </c>
       <c r="R5">
-        <v>23.806480018615</v>
+        <v>4.036065650069999</v>
       </c>
       <c r="S5">
-        <v>0.01028380563934578</v>
+        <v>0.0009482456897225383</v>
       </c>
       <c r="T5">
-        <v>0.008460120475436135</v>
+        <v>0.0008220687190123027</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1541183333333333</v>
+        <v>0.02915933333333333</v>
       </c>
       <c r="H6">
-        <v>0.462355</v>
+        <v>0.087478</v>
       </c>
       <c r="I6">
-        <v>0.07333767099777491</v>
+        <v>0.009217161845809414</v>
       </c>
       <c r="J6">
-        <v>0.0862683729962668</v>
+        <v>0.01157500551439625</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>54.89089866666666</v>
+        <v>81.293813</v>
       </c>
       <c r="N6">
-        <v>164.672696</v>
+        <v>243.881439</v>
       </c>
       <c r="O6">
-        <v>0.2989767765870066</v>
+        <v>0.3625365329530597</v>
       </c>
       <c r="P6">
-        <v>0.3136367235724047</v>
+        <v>0.3754103904587522</v>
       </c>
       <c r="Q6">
-        <v>8.459693817675555</v>
+        <v>2.370473391204666</v>
       </c>
       <c r="R6">
-        <v>76.13724435908</v>
+        <v>21.334260520842</v>
       </c>
       <c r="S6">
-        <v>0.02192626047731314</v>
+        <v>0.003341557899246969</v>
       </c>
       <c r="T6">
-        <v>0.02705692985447123</v>
+        <v>0.004345377339721704</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.76125</v>
+        <v>0.7612500000000001</v>
       </c>
       <c r="H7">
         <v>2.28375</v>
       </c>
       <c r="I7">
-        <v>0.3622430948971428</v>
+        <v>0.2406284250367778</v>
       </c>
       <c r="J7">
-        <v>0.4261128285196966</v>
+        <v>0.3021836215220104</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.464632333333334</v>
+        <v>9.363528666666667</v>
       </c>
       <c r="N7">
-        <v>25.393897</v>
+        <v>28.090586</v>
       </c>
       <c r="O7">
-        <v>0.04610470135281236</v>
+        <v>0.04175743631338733</v>
       </c>
       <c r="P7">
-        <v>0.0483653868994476</v>
+        <v>0.04324026421082073</v>
       </c>
       <c r="Q7">
-        <v>6.443701363750001</v>
+        <v>7.127986197500001</v>
       </c>
       <c r="R7">
-        <v>57.99331227375001</v>
+        <v>64.15187577750001</v>
       </c>
       <c r="S7">
-        <v>0.01670110970735124</v>
+        <v>0.01004802613366395</v>
       </c>
       <c r="T7">
-        <v>0.0206091118141731</v>
+        <v>0.01306649963479438</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.76125</v>
+        <v>0.7612500000000001</v>
       </c>
       <c r="H8">
         <v>2.28375</v>
       </c>
       <c r="I8">
-        <v>0.3622430948971428</v>
+        <v>0.2406284250367778</v>
       </c>
       <c r="J8">
-        <v>0.4261128285196966</v>
+        <v>0.3021836215220104</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>117.67466</v>
       </c>
       <c r="O8">
-        <v>0.2136479901487249</v>
+        <v>0.1749266505387075</v>
       </c>
       <c r="P8">
-        <v>0.2241239483314023</v>
+        <v>0.1811383852696593</v>
       </c>
       <c r="Q8">
         <v>29.859944975</v>
       </c>
       <c r="R8">
-        <v>268.739504775</v>
+        <v>268.7395047750001</v>
       </c>
       <c r="S8">
-        <v>0.07739250917002838</v>
+        <v>0.042092324416088</v>
       </c>
       <c r="T8">
-        <v>0.09550208956249616</v>
+        <v>0.05473705325743483</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.76125</v>
+        <v>0.7612500000000001</v>
       </c>
       <c r="H9">
         <v>2.28375</v>
       </c>
       <c r="I9">
-        <v>0.3622430948971428</v>
+        <v>0.2406284250367778</v>
       </c>
       <c r="J9">
-        <v>0.4261128285196966</v>
+        <v>0.3021836215220104</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>55.27063666666667</v>
+        <v>71.284935</v>
       </c>
       <c r="N9">
-        <v>165.81191</v>
+        <v>213.854805</v>
       </c>
       <c r="O9">
-        <v>0.3010451129769252</v>
+        <v>0.3179011075133629</v>
       </c>
       <c r="P9">
-        <v>0.3158064782135008</v>
+        <v>0.3291899382573772</v>
       </c>
       <c r="Q9">
-        <v>42.0747721625</v>
+        <v>54.26565676875001</v>
       </c>
       <c r="R9">
-        <v>378.6729494625</v>
+        <v>488.3909109187501</v>
       </c>
       <c r="S9">
-        <v>0.1090515134284214</v>
+        <v>0.0764960428183879</v>
       </c>
       <c r="T9">
-        <v>0.1345691916963988</v>
+        <v>0.09947580771122126</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.76125</v>
+        <v>0.7612500000000001</v>
       </c>
       <c r="H10">
         <v>2.28375</v>
       </c>
       <c r="I10">
-        <v>0.3622430948971428</v>
+        <v>0.2406284250367778</v>
       </c>
       <c r="J10">
-        <v>0.4261128285196966</v>
+        <v>0.3021836215220104</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.7448065</v>
+        <v>23.0690325</v>
       </c>
       <c r="N10">
-        <v>51.48961300000001</v>
+        <v>46.138065</v>
       </c>
       <c r="O10">
-        <v>0.1402254189345309</v>
+        <v>0.1028782726814826</v>
       </c>
       <c r="P10">
-        <v>0.09806746298324463</v>
+        <v>0.07102102180339065</v>
       </c>
       <c r="Q10">
-        <v>19.598233948125</v>
+        <v>17.561300990625</v>
       </c>
       <c r="R10">
-        <v>117.58940368875</v>
+        <v>105.36780594375</v>
       </c>
       <c r="S10">
-        <v>0.05079568973809288</v>
+        <v>0.02475543672584932</v>
       </c>
       <c r="T10">
-        <v>0.04178780403754102</v>
+        <v>0.02146138957274225</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.76125</v>
+        <v>0.7612500000000001</v>
       </c>
       <c r="H11">
         <v>2.28375</v>
       </c>
       <c r="I11">
-        <v>0.3622430948971428</v>
+        <v>0.2406284250367778</v>
       </c>
       <c r="J11">
-        <v>0.4261128285196966</v>
+        <v>0.3021836215220104</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.89089866666666</v>
+        <v>81.293813</v>
       </c>
       <c r="N11">
-        <v>164.672696</v>
+        <v>243.881439</v>
       </c>
       <c r="O11">
-        <v>0.2989767765870066</v>
+        <v>0.3625365329530597</v>
       </c>
       <c r="P11">
-        <v>0.3136367235724047</v>
+        <v>0.3754103904587522</v>
       </c>
       <c r="Q11">
-        <v>41.78569661</v>
+        <v>61.88491514625001</v>
       </c>
       <c r="R11">
-        <v>376.07126949</v>
+        <v>556.9642363162501</v>
       </c>
       <c r="S11">
-        <v>0.1083022728532489</v>
+        <v>0.08723659494278867</v>
       </c>
       <c r="T11">
-        <v>0.1336446314090876</v>
+        <v>0.1134428713458177</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.04595933333333333</v>
+        <v>0.2142793333333333</v>
       </c>
       <c r="H12">
-        <v>0.137878</v>
+        <v>0.642838</v>
       </c>
       <c r="I12">
-        <v>0.02186988656298993</v>
+        <v>0.06773293727150177</v>
       </c>
       <c r="J12">
-        <v>0.02572592646771264</v>
+        <v>0.08505971095433656</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.464632333333334</v>
+        <v>9.363528666666667</v>
       </c>
       <c r="N12">
-        <v>25.393897</v>
+        <v>28.090586</v>
       </c>
       <c r="O12">
-        <v>0.04610470135281236</v>
+        <v>0.04175743631338733</v>
       </c>
       <c r="P12">
-        <v>0.0483653868994476</v>
+        <v>0.04324026421082073</v>
       </c>
       <c r="Q12">
-        <v>0.3890288589517778</v>
+        <v>2.006410680340889</v>
       </c>
       <c r="R12">
-        <v>3.501259730566</v>
+        <v>18.057696123068</v>
       </c>
       <c r="S12">
-        <v>0.001008304588606535</v>
+        <v>0.002828353814433394</v>
       </c>
       <c r="T12">
-        <v>0.001244244386957661</v>
+        <v>0.003678004375361555</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.04595933333333333</v>
+        <v>0.2142793333333333</v>
       </c>
       <c r="H13">
-        <v>0.137878</v>
+        <v>0.642838</v>
       </c>
       <c r="I13">
-        <v>0.02186988656298993</v>
+        <v>0.06773293727150177</v>
       </c>
       <c r="J13">
-        <v>0.02572592646771264</v>
+        <v>0.08505971095433656</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>117.67466</v>
       </c>
       <c r="O13">
-        <v>0.2136479901487249</v>
+        <v>0.1749266505387075</v>
       </c>
       <c r="P13">
-        <v>0.2241239483314023</v>
+        <v>0.1811383852696593</v>
       </c>
       <c r="Q13">
-        <v>1.802749641275556</v>
+        <v>8.40508256500889</v>
       </c>
       <c r="R13">
-        <v>16.22474677148</v>
+        <v>75.64574308508</v>
       </c>
       <c r="S13">
-        <v>0.004672457308963404</v>
+        <v>0.01184829584805218</v>
       </c>
       <c r="T13">
-        <v>0.00576579621442708</v>
+        <v>0.01540757869377248</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.04595933333333333</v>
+        <v>0.2142793333333333</v>
       </c>
       <c r="H14">
-        <v>0.137878</v>
+        <v>0.642838</v>
       </c>
       <c r="I14">
-        <v>0.02186988656298993</v>
+        <v>0.06773293727150177</v>
       </c>
       <c r="J14">
-        <v>0.02572592646771264</v>
+        <v>0.08505971095433656</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>55.27063666666667</v>
+        <v>71.284935</v>
       </c>
       <c r="N14">
-        <v>165.81191</v>
+        <v>213.854805</v>
       </c>
       <c r="O14">
-        <v>0.3010451129769252</v>
+        <v>0.3179011075133629</v>
       </c>
       <c r="P14">
-        <v>0.3158064782135008</v>
+        <v>0.3291899382573772</v>
       </c>
       <c r="Q14">
-        <v>2.540201614108889</v>
+        <v>15.27488834851</v>
       </c>
       <c r="R14">
-        <v>22.86181452698</v>
+        <v>137.47399513659</v>
       </c>
       <c r="S14">
-        <v>0.006583822471147841</v>
+        <v>0.02153237577374355</v>
       </c>
       <c r="T14">
-        <v>0.008124414236547814</v>
+        <v>0.0280008009972484</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.04595933333333333</v>
+        <v>0.2142793333333333</v>
       </c>
       <c r="H15">
-        <v>0.137878</v>
+        <v>0.642838</v>
       </c>
       <c r="I15">
-        <v>0.02186988656298993</v>
+        <v>0.06773293727150177</v>
       </c>
       <c r="J15">
-        <v>0.02572592646771264</v>
+        <v>0.08505971095433656</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>25.7448065</v>
+        <v>23.0690325</v>
       </c>
       <c r="N15">
-        <v>51.48961300000001</v>
+        <v>46.138065</v>
       </c>
       <c r="O15">
-        <v>0.1402254189345309</v>
+        <v>0.1028782726814826</v>
       </c>
       <c r="P15">
-        <v>0.09806746298324463</v>
+        <v>0.07102102180339065</v>
       </c>
       <c r="Q15">
-        <v>1.183214143535667</v>
+        <v>4.943216904745</v>
       </c>
       <c r="R15">
-        <v>7.099284861214</v>
+        <v>29.65930142847</v>
       </c>
       <c r="S15">
-        <v>0.003066714005345931</v>
+        <v>0.006968247590135315</v>
       </c>
       <c r="T15">
-        <v>0.002522876341582082</v>
+        <v>0.006041027586278044</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.04595933333333333</v>
+        <v>0.2142793333333333</v>
       </c>
       <c r="H16">
-        <v>0.137878</v>
+        <v>0.642838</v>
       </c>
       <c r="I16">
-        <v>0.02186988656298993</v>
+        <v>0.06773293727150177</v>
       </c>
       <c r="J16">
-        <v>0.02572592646771264</v>
+        <v>0.08505971095433656</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>54.89089866666666</v>
+        <v>81.293813</v>
       </c>
       <c r="N16">
-        <v>164.672696</v>
+        <v>243.881439</v>
       </c>
       <c r="O16">
-        <v>0.2989767765870066</v>
+        <v>0.3625365329530597</v>
       </c>
       <c r="P16">
-        <v>0.3136367235724047</v>
+        <v>0.3754103904587522</v>
       </c>
       <c r="Q16">
-        <v>2.522749108787556</v>
+        <v>17.41958405376467</v>
       </c>
       <c r="R16">
-        <v>22.704741979088</v>
+        <v>156.776256483882</v>
       </c>
       <c r="S16">
-        <v>0.006538588188926218</v>
+        <v>0.02455566424513733</v>
       </c>
       <c r="T16">
-        <v>0.008068595288197998</v>
+        <v>0.03193229930167609</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.944972</v>
+        <v>1.933283</v>
       </c>
       <c r="H17">
-        <v>1.889944</v>
+        <v>3.866566</v>
       </c>
       <c r="I17">
-        <v>0.4496677594366408</v>
+        <v>0.6111038994290665</v>
       </c>
       <c r="J17">
-        <v>0.3526346507208887</v>
+        <v>0.511620324787684</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.464632333333334</v>
+        <v>9.363528666666667</v>
       </c>
       <c r="N17">
-        <v>25.393897</v>
+        <v>28.090586</v>
       </c>
       <c r="O17">
-        <v>0.04610470135281236</v>
+        <v>0.04175743631338733</v>
       </c>
       <c r="P17">
-        <v>0.0483653868994476</v>
+        <v>0.04324026421082073</v>
       </c>
       <c r="Q17">
-        <v>7.998840545294668</v>
+        <v>18.10235079127933</v>
       </c>
       <c r="R17">
-        <v>47.99304327176801</v>
+        <v>108.614104747676</v>
       </c>
       <c r="S17">
-        <v>0.0207317977568146</v>
+        <v>0.0255181321612719</v>
       </c>
       <c r="T17">
-        <v>0.01705531131626735</v>
+        <v>0.02212259801944537</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.944972</v>
+        <v>1.933283</v>
       </c>
       <c r="H18">
-        <v>1.889944</v>
+        <v>3.866566</v>
       </c>
       <c r="I18">
-        <v>0.4496677594366408</v>
+        <v>0.6111038994290665</v>
       </c>
       <c r="J18">
-        <v>0.3526346507208887</v>
+        <v>0.511620324787684</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>117.67466</v>
       </c>
       <c r="O18">
-        <v>0.2136479901487249</v>
+        <v>0.1749266505387075</v>
       </c>
       <c r="P18">
-        <v>0.2241239483314023</v>
+        <v>0.1811383852696593</v>
       </c>
       <c r="Q18">
-        <v>37.06641960317334</v>
+        <v>75.83280656959333</v>
       </c>
       <c r="R18">
-        <v>222.39851761904</v>
+        <v>454.99683941756</v>
       </c>
       <c r="S18">
-        <v>0.09607061303831864</v>
+        <v>0.1068983582582697</v>
       </c>
       <c r="T18">
-        <v>0.07903387023803053</v>
+        <v>0.09267407950317973</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.944972</v>
+        <v>1.933283</v>
       </c>
       <c r="H19">
-        <v>1.889944</v>
+        <v>3.866566</v>
       </c>
       <c r="I19">
-        <v>0.4496677594366408</v>
+        <v>0.6111038994290665</v>
       </c>
       <c r="J19">
-        <v>0.3526346507208887</v>
+        <v>0.511620324787684</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>55.27063666666667</v>
+        <v>71.284935</v>
       </c>
       <c r="N19">
-        <v>165.81191</v>
+        <v>213.854805</v>
       </c>
       <c r="O19">
-        <v>0.3010451129769252</v>
+        <v>0.3179011075133629</v>
       </c>
       <c r="P19">
-        <v>0.3158064782135008</v>
+        <v>0.3291899382573772</v>
       </c>
       <c r="Q19">
-        <v>52.22920407217334</v>
+        <v>137.813952991605</v>
       </c>
       <c r="R19">
-        <v>313.37522443304</v>
+        <v>826.88371794963</v>
       </c>
       <c r="S19">
-        <v>0.1353702814416843</v>
+        <v>0.194270606434235</v>
       </c>
       <c r="T19">
-        <v>0.1113643071402118</v>
+        <v>0.168420263128077</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.944972</v>
+        <v>1.933283</v>
       </c>
       <c r="H20">
-        <v>1.889944</v>
+        <v>3.866566</v>
       </c>
       <c r="I20">
-        <v>0.4496677594366408</v>
+        <v>0.6111038994290665</v>
       </c>
       <c r="J20">
-        <v>0.3526346507208887</v>
+        <v>0.511620324787684</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>25.7448065</v>
+        <v>23.0690325</v>
       </c>
       <c r="N20">
-        <v>51.48961300000001</v>
+        <v>46.138065</v>
       </c>
       <c r="O20">
-        <v>0.1402254189345309</v>
+        <v>0.1028782726814826</v>
       </c>
       <c r="P20">
-        <v>0.09806746298324463</v>
+        <v>0.07102102180339065</v>
       </c>
       <c r="Q20">
-        <v>24.328121287918</v>
+        <v>44.5989683586975</v>
       </c>
       <c r="R20">
-        <v>97.31248515167201</v>
+        <v>178.39587343479</v>
       </c>
       <c r="S20">
-        <v>0.06305484994835484</v>
+        <v>0.06286931360218083</v>
       </c>
       <c r="T20">
-        <v>0.03458198555618015</v>
+        <v>0.03633579824180391</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.944972</v>
+        <v>1.933283</v>
       </c>
       <c r="H21">
-        <v>1.889944</v>
+        <v>3.866566</v>
       </c>
       <c r="I21">
-        <v>0.4496677594366408</v>
+        <v>0.6111038994290665</v>
       </c>
       <c r="J21">
-        <v>0.3526346507208887</v>
+        <v>0.511620324787684</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>54.89089866666666</v>
+        <v>81.293813</v>
       </c>
       <c r="N21">
-        <v>164.672696</v>
+        <v>243.881439</v>
       </c>
       <c r="O21">
-        <v>0.2989767765870066</v>
+        <v>0.3625365329530597</v>
       </c>
       <c r="P21">
-        <v>0.3136367235724047</v>
+        <v>0.3754103904587522</v>
       </c>
       <c r="Q21">
-        <v>51.87036229483734</v>
+        <v>157.163946678079</v>
       </c>
       <c r="R21">
-        <v>311.222173769024</v>
+        <v>942.983680068474</v>
       </c>
       <c r="S21">
-        <v>0.1344402172514684</v>
+        <v>0.2215474889731091</v>
       </c>
       <c r="T21">
-        <v>0.1105991764701988</v>
+        <v>0.1920675858951781</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.1951896666666667</v>
+        <v>0.2256196666666667</v>
       </c>
       <c r="H22">
-        <v>0.585569</v>
+        <v>0.676859</v>
       </c>
       <c r="I22">
-        <v>0.09288158810545157</v>
+        <v>0.07131757641684439</v>
       </c>
       <c r="J22">
-        <v>0.1092582212954352</v>
+        <v>0.0895613372215726</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.464632333333334</v>
+        <v>9.363528666666667</v>
       </c>
       <c r="N22">
-        <v>25.393897</v>
+        <v>28.090586</v>
       </c>
       <c r="O22">
-        <v>0.04610470135281236</v>
+        <v>0.04175743631338733</v>
       </c>
       <c r="P22">
-        <v>0.0483653868994476</v>
+        <v>0.04324026421082073</v>
       </c>
       <c r="Q22">
-        <v>1.652208763599222</v>
+        <v>2.112596216597111</v>
       </c>
       <c r="R22">
-        <v>14.869878872393</v>
+        <v>19.013365949374</v>
       </c>
       <c r="S22">
-        <v>0.004282277880776773</v>
+        <v>0.002978039155251514</v>
       </c>
       <c r="T22">
-        <v>0.005284316144899191</v>
+        <v>0.003872655884535212</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.1951896666666667</v>
+        <v>0.2256196666666667</v>
       </c>
       <c r="H23">
-        <v>0.585569</v>
+        <v>0.676859</v>
       </c>
       <c r="I23">
-        <v>0.09288158810545157</v>
+        <v>0.07131757641684439</v>
       </c>
       <c r="J23">
-        <v>0.1092582212954352</v>
+        <v>0.0895613372215726</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>117.67466</v>
       </c>
       <c r="O23">
-        <v>0.2136479901487249</v>
+        <v>0.1749266505387075</v>
       </c>
       <c r="P23">
-        <v>0.2241239483314023</v>
+        <v>0.1811383852696593</v>
       </c>
       <c r="Q23">
-        <v>7.656292553504445</v>
+        <v>8.849905854771112</v>
       </c>
       <c r="R23">
-        <v>68.90663298154</v>
+        <v>79.64915269294001</v>
       </c>
       <c r="S23">
-        <v>0.01984396462055144</v>
+        <v>0.0124753447671369</v>
       </c>
       <c r="T23">
-        <v>0.02448738394439904</v>
+        <v>0.01622299600690709</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.1951896666666667</v>
+        <v>0.2256196666666667</v>
       </c>
       <c r="H24">
-        <v>0.585569</v>
+        <v>0.676859</v>
       </c>
       <c r="I24">
-        <v>0.09288158810545157</v>
+        <v>0.07131757641684439</v>
       </c>
       <c r="J24">
-        <v>0.1092582212954352</v>
+        <v>0.0895613372215726</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>55.27063666666667</v>
+        <v>71.284935</v>
       </c>
       <c r="N24">
-        <v>165.81191</v>
+        <v>213.854805</v>
       </c>
       <c r="O24">
-        <v>0.3010451129769252</v>
+        <v>0.3179011075133629</v>
       </c>
       <c r="P24">
-        <v>0.3158064782135008</v>
+        <v>0.3291899382573772</v>
       </c>
       <c r="Q24">
-        <v>10.78825714742111</v>
+        <v>16.083283273055</v>
       </c>
       <c r="R24">
-        <v>97.09431432679001</v>
+        <v>144.749549457495</v>
       </c>
       <c r="S24">
-        <v>0.02796154818468189</v>
+        <v>0.02267193652808372</v>
       </c>
       <c r="T24">
-        <v>0.03450445408318272</v>
+        <v>0.02948269107021762</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.1951896666666667</v>
+        <v>0.2256196666666667</v>
       </c>
       <c r="H25">
-        <v>0.585569</v>
+        <v>0.676859</v>
       </c>
       <c r="I25">
-        <v>0.09288158810545157</v>
+        <v>0.07131757641684439</v>
       </c>
       <c r="J25">
-        <v>0.1092582212954352</v>
+        <v>0.0895613372215726</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.7448065</v>
+        <v>23.0690325</v>
       </c>
       <c r="N25">
-        <v>51.48961300000001</v>
+        <v>46.138065</v>
       </c>
       <c r="O25">
-        <v>0.1402254189345309</v>
+        <v>0.1028782726814826</v>
       </c>
       <c r="P25">
-        <v>0.09806746298324463</v>
+        <v>0.07102102180339065</v>
       </c>
       <c r="Q25">
-        <v>5.025120199132834</v>
+        <v>5.2048274229725</v>
       </c>
       <c r="R25">
-        <v>30.150721194797</v>
+        <v>31.228964537835</v>
       </c>
       <c r="S25">
-        <v>0.01302435960339149</v>
+        <v>0.00733702907359459</v>
       </c>
       <c r="T25">
-        <v>0.01071467657250525</v>
+        <v>0.00636073768355413</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.1951896666666667</v>
+        <v>0.2256196666666667</v>
       </c>
       <c r="H26">
-        <v>0.585569</v>
+        <v>0.676859</v>
       </c>
       <c r="I26">
-        <v>0.09288158810545157</v>
+        <v>0.07131757641684439</v>
       </c>
       <c r="J26">
-        <v>0.1092582212954352</v>
+        <v>0.0895613372215726</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>54.89089866666666</v>
+        <v>81.293813</v>
       </c>
       <c r="N26">
-        <v>164.672696</v>
+        <v>243.881439</v>
       </c>
       <c r="O26">
-        <v>0.2989767765870066</v>
+        <v>0.3625365329530597</v>
       </c>
       <c r="P26">
-        <v>0.3136367235724047</v>
+        <v>0.3754103904587522</v>
       </c>
       <c r="Q26">
-        <v>10.71413621378044</v>
+        <v>18.34148299112233</v>
       </c>
       <c r="R26">
-        <v>96.427225924024</v>
+        <v>165.073346920101</v>
       </c>
       <c r="S26">
-        <v>0.02776943781604996</v>
+        <v>0.02585522689277766</v>
       </c>
       <c r="T26">
-        <v>0.03426739055044904</v>
+        <v>0.03362225657635855</v>
       </c>
     </row>
   </sheetData>
